--- a/data/stimuli_en/multipleye_comprehension_questions_en.xlsx
+++ b/data/stimuli_en/multipleye_comprehension_questions_en.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/data/stimuli_en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E20A42E-7CF2-4842-9625-CF53B64FD3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68336872-A0E8-E544-8CCD-5EFC9A2CC8CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{BF0A98E9-F8D9-4949-AD77-1583D2976307}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$1</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,44 +38,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={CACC8550-F5E4-2046-8B96-A9DB1E27561A}</author>
-    <author>tc={616F3D29-E64B-F54B-B753-D6FC9C73ACDA}</author>
-    <author>tc={0026CF7B-0CC9-734D-B302-AF1097768FE9}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{CACC8550-F5E4-2046-8B96-A9DB1E27561A}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    The first few columns make it easier for me to process while creating the images but should not be touched :) </t>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="1" shapeId="0" xr:uid="{616F3D29-E64B-F54B-B753-D6FC9C73ACDA}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    I think it would be easiest if you could add a $..$ around the target span and $$..$$ around the distractor_1 span, etc. (if applicable) —&gt; then I can very easily compute the word indices and add it to the air files. Counting the indices by hand it too tedious.. but if you also add the actual text (see other columns) I can double check that all is correct.</t>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="2" shapeId="0" xr:uid="{0026CF7B-0CC9-734D-B302-AF1097768FE9}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Here it would be important to have a finite set of options (ideally something that is easy to machine-read, like local_literal_1, global_2, etc.)</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="30">
   <si>
     <t>stimulus_id</t>
   </si>
@@ -84,9 +51,6 @@
   </si>
   <si>
     <t>Ins_HumanRights</t>
-  </si>
-  <si>
-    <t>Lit_Harry_Potter</t>
   </si>
   <si>
     <t>practice</t>
@@ -127,12 +91,51 @@
   <si>
     <t>distractor_1_span_text</t>
   </si>
+  <si>
+    <t>Lit_HarryPotter</t>
+  </si>
+  <si>
+    <t>Enc_WikiMoon</t>
+  </si>
+  <si>
+    <t>Ins_EURLex</t>
+  </si>
+  <si>
+    <t>Lit_Alchemist</t>
+  </si>
+  <si>
+    <t>Lit_EmperorClothes</t>
+  </si>
+  <si>
+    <t>Lit_MagicMountain</t>
+  </si>
+  <si>
+    <t>Lit_NorthWind</t>
+  </si>
+  <si>
+    <t>Lit_Solaris</t>
+  </si>
+  <si>
+    <t>Lit_BrokenApril</t>
+  </si>
+  <si>
+    <t>Arg_PISARapaNui</t>
+  </si>
+  <si>
+    <t>Arg_PISACowsMilk</t>
+  </si>
+  <si>
+    <t>placeholder text</t>
+  </si>
+  <si>
+    <t>Is this a placeholder question to test the image creation?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -148,10 +151,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,14 +211,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,9 +244,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Deborah Noemie Jakobi" id="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" userId="S::deborahnoemie.jakobi@uzh.ch::c81a5dbe-3e58-4e5d-8c3a-bdf4f2e65b74" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -524,33 +542,19 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2023-10-06T13:49:43.10" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{CACC8550-F5E4-2046-8B96-A9DB1E27561A}">
-    <text xml:space="preserve">The first few columns make it easier for me to process while creating the images but should not be touched :) </text>
-  </threadedComment>
-  <threadedComment ref="E1" dT="2023-10-06T13:53:29.21" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{616F3D29-E64B-F54B-B753-D6FC9C73ACDA}">
-    <text>I think it would be easiest if you could add a $..$ around the target span and $$..$$ around the distractor_1 span, etc. (if applicable) —&gt; then I can very easily compute the word indices and add it to the air files. Counting the indices by hand it too tedious.. but if you also add the actual text (see other columns) I can double check that all is correct.</text>
-  </threadedComment>
-  <threadedComment ref="G1" dT="2023-10-06T13:47:01.97" personId="{748F7033-6D7B-E748-9F66-10D69C5A4C41}" id="{0026CF7B-0CC9-734D-B302-AF1097768FE9}">
-    <text>Here it would be important to have a finite set of options (ideally something that is easy to machine-read, like local_literal_1, global_2, etc.)</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C6EA3-68FC-004D-97A8-DCDE2573704E}">
-  <dimension ref="A1:M19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{899C6EA3-68FC-004D-97A8-DCDE2573704E}">
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B80" sqref="B80:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="40.83203125" customWidth="1"/>
     <col min="5" max="5" width="40.83203125" customWidth="1"/>
-    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="8" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="14.1640625" customWidth="1"/>
@@ -560,306 +564,3272 @@
     <col min="13" max="13" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" s="5" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>11</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M24" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M25" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M28" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>22</v>
+      </c>
+      <c r="C29" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M29" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="B32">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>6</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="B34">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>6</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="B35">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>6</v>
       </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="B36">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>6</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>6</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
+      <c r="B37">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M42" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M43" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M44" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>8</v>
+      </c>
+      <c r="B45">
+        <v>12</v>
+      </c>
+      <c r="C45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M46" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>8</v>
+      </c>
+      <c r="B47">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M49" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M51" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52">
+        <v>21</v>
+      </c>
+      <c r="C52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53">
+        <v>22</v>
+      </c>
+      <c r="C53" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54">
+        <v>31</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9</v>
+      </c>
+      <c r="B55">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J55" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M56" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>10</v>
+      </c>
+      <c r="B57">
+        <v>12</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>10</v>
+      </c>
+      <c r="B58">
+        <v>21</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J58" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>22</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>10</v>
+      </c>
+      <c r="B61">
+        <v>32</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>11</v>
+      </c>
+      <c r="B62">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11</v>
+      </c>
+      <c r="B63">
+        <v>12</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M63" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>11</v>
+      </c>
+      <c r="B64">
+        <v>21</v>
+      </c>
+      <c r="C64" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M64" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>11</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>11</v>
+      </c>
+      <c r="B66">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67">
+        <v>32</v>
+      </c>
+      <c r="C67" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69">
+        <v>12</v>
+      </c>
+      <c r="C69" t="s">
+        <v>26</v>
+      </c>
+      <c r="D69" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>21</v>
+      </c>
+      <c r="C70" t="s">
+        <v>26</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J70" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>12</v>
+      </c>
+      <c r="B71">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>26</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>12</v>
+      </c>
+      <c r="B72">
+        <v>31</v>
+      </c>
+      <c r="C72" t="s">
+        <v>26</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>12</v>
+      </c>
+      <c r="B73">
+        <v>32</v>
+      </c>
+      <c r="C73" t="s">
+        <v>26</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K73" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J74" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K74" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L74" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M74" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>12</v>
+      </c>
+      <c r="C75" t="s">
+        <v>27</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J75" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K75" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M75" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>21</v>
+      </c>
+      <c r="C76" t="s">
+        <v>27</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J76" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K76" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>27</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J77" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K77" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M77" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>27</v>
+      </c>
+      <c r="D78" t="s">
+        <v>5</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>32</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J79" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M1" xr:uid="{899C6EA3-68FC-004D-97A8-DCDE2573704E}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>